--- a/SourcingReporting_NodeJS/Zeitaufzeichnung.xlsx
+++ b/SourcingReporting_NodeJS/Zeitaufzeichnung.xlsx
@@ -519,7 +519,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +846,7 @@
         <v>43143</v>
       </c>
       <c r="C25" s="2">
-        <v>0.12152777777777778</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="C32" s="3">
         <f>SUM(Tabelle1[Zeit])</f>
-        <v>3.2534722222222223</v>
+        <v>3.28125</v>
       </c>
     </row>
   </sheetData>
@@ -899,36 +899,24 @@
   <dimension ref="B3:H5"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="B3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.60763888888888895</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
-        <v>0.4375</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.65972222222222221</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -937,15 +925,15 @@
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <f>B4-B3</f>
-        <v>2.0833333333333315E-2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:G5" si="0">C4-C3</f>
-        <v>4.861111111111116E-2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>5.2083333333333259E-2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
@@ -961,7 +949,7 @@
       </c>
       <c r="H5" s="3">
         <f>SUM(B5:G5)</f>
-        <v>0.12152777777777773</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SourcingReporting_NodeJS/Zeitaufzeichnung.xlsx
+++ b/SourcingReporting_NodeJS/Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Candidateupdate</t>
+  </si>
+  <si>
+    <t>update Candidate fertig, Candidate filter und sort, ToDo: WIG, Statistiken</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,8 +856,15 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="1">
+        <v>43144</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -882,7 +892,7 @@
       </c>
       <c r="C32" s="3">
         <f>SUM(Tabelle1[Zeit])</f>
-        <v>3.28125</v>
+        <v>3.5381944444444446</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +909,7 @@
   <dimension ref="B3:H5"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D4" sqref="B3:D4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SourcingReporting_NodeJS/Zeitaufzeichnung.xlsx
+++ b/SourcingReporting_NodeJS/Zeitaufzeichnung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>update Candidate fertig, Candidate filter und sort, ToDo: WIG, Statistiken</t>
+  </si>
+  <si>
+    <t>WIG bearbeiten, löschen, übersicht</t>
   </si>
 </sst>
 </file>
@@ -241,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E32" totalsRowCount="1">
-  <autoFilter ref="A1:E31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E43" totalsRowCount="1">
+  <autoFilter ref="A1:E42"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="2"/>
     <tableColumn id="2" name="Beschreibung"/>
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,8 +870,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="1">
+        <v>43448</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -887,12 +897,56 @@
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C43" s="3">
         <f>SUM(Tabelle1[Zeit])</f>
-        <v>3.5381944444444446</v>
+        <v>3.7881944444444446</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +963,7 @@
   <dimension ref="B3:H5"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SourcingReporting_NodeJS/Zeitaufzeichnung.xlsx
+++ b/SourcingReporting_NodeJS/Zeitaufzeichnung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>WIG bearbeiten, löschen, übersicht</t>
+  </si>
+  <si>
+    <t>Statistiken, Projekt auf Server; Problem beim erstellen der SQL Statements für die Statistik</t>
+  </si>
+  <si>
+    <t>Statistiken, Projekt auf Server mit Sarah (Problem bei Portfreigabe)</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,12 +887,26 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="1">
+        <v>43146</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="1">
+        <v>43147</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -946,7 +966,7 @@
       </c>
       <c r="C43" s="3">
         <f>SUM(Tabelle1[Zeit])</f>
-        <v>3.7881944444444446</v>
+        <v>4.2465277777777786</v>
       </c>
     </row>
   </sheetData>
@@ -963,7 +983,7 @@
   <dimension ref="B3:H5"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C4"/>
+      <selection activeCell="B4" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
